--- a/TPA_UseCaseDescription.xlsx
+++ b/TPA_UseCaseDescription.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopheralden/Documents/AL23-2/TPA/DESKTOP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0827E75E-768F-CB43-9C54-B79D0E0110F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0065D6D-4EBA-F748-8839-D72F68C59672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18000" yWindow="880" windowWidth="18000" windowHeight="21020" firstSheet="4" activeTab="6" xr2:uid="{3E29D978-E589-CF40-BCCD-365928EA242B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
   <si>
     <t>USE CASE DESCRIPTION</t>
   </si>
@@ -431,6 +431,21 @@
   </si>
   <si>
     <t>Generate Inspection Reports</t>
+  </si>
+  <si>
+    <t>Customs and Border Control Officer, CSO</t>
+  </si>
+  <si>
+    <t>Baggage Security Supervisor, CSO, Lost and Found Staff</t>
+  </si>
+  <si>
+    <t>Cargo Manager, Logistics Manager, Cargo Handler, Lanside Operations Manager</t>
+  </si>
+  <si>
+    <t>CFO, CEO</t>
+  </si>
+  <si>
+    <t>CSO, Employee</t>
   </si>
 </sst>
 </file>
@@ -492,26 +507,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -521,6 +524,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,10 +552,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -842,438 +853,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C672E7-C62D-4B49-A010-2EF06802BCA4}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="3" width="50.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="306" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A700A7B0-2D3E-4449-A8AD-527C3BD1CB21}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" style="11" customWidth="1"/>
-    <col min="2" max="3" width="50.83203125" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="223" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACDF4AC-1C72-A248-B64B-41D864E31943}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="3" width="50.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="221" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE82061-044D-D24A-A922-8AEC17267757}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
@@ -1285,11 +864,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1297,77 +876,79 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="4"/>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1377,37 +958,473 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="11" spans="1:8" ht="306" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="4"/>
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A700A7B0-2D3E-4449-A8AD-527C3BD1CB21}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="50.83203125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="223" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACDF4AC-1C72-A248-B64B-41D864E31943}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="3" width="50.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE82061-044D-D24A-A922-8AEC17267757}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="3" width="50.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1418,140 +1435,142 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="11" customWidth="1"/>
-    <col min="2" max="3" width="50.83203125" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="20.33203125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="50.83203125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="272" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1562,140 +1581,142 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="11" customWidth="1"/>
-    <col min="2" max="3" width="50.83203125" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="20.33203125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="50.83203125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="255" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1706,140 +1727,142 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="11" customWidth="1"/>
-    <col min="2" max="3" width="50.83203125" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="20.33203125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="50.83203125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="306" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TPA_UseCaseDescription.xlsx
+++ b/TPA_UseCaseDescription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopheralden/Documents/AL23-2/TPA/DESKTOP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0065D6D-4EBA-F748-8839-D72F68C59672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921A24BA-26E1-E846-BE11-870C428F981B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18000" yWindow="880" windowWidth="18000" windowHeight="21020" firstSheet="4" activeTab="6" xr2:uid="{3E29D978-E589-CF40-BCCD-365928EA242B}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="18000" windowHeight="21040" firstSheet="4" activeTab="4" xr2:uid="{3E29D978-E589-CF40-BCCD-365928EA242B}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Assign Flight Crews" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
   <si>
     <t>USE CASE DESCRIPTION</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>CSO, Employee</t>
+  </si>
+  <si>
+    <t>Related use cases</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -531,8 +534,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -851,301 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C672E7-C62D-4B49-A010-2EF06802BCA4}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="3" width="50.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="306" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B12:C12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A700A7B0-2D3E-4449-A8AD-527C3BD1CB21}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" style="7" customWidth="1"/>
-    <col min="2" max="3" width="50.83203125" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="223" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACDF4AC-1C72-A248-B64B-41D864E31943}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1170,272 +888,134 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="9"/>
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="221" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8" ht="306" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="9"/>
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE82061-044D-D24A-A922-8AEC17267757}">
-  <dimension ref="A1:H12"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A700A7B0-2D3E-4449-A8AD-527C3BD1CB21}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="3" width="50.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B12:C12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B91EB32-F878-A34E-A921-D76565EE5354}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1446,11 +1026,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1461,127 +1041,438 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="9"/>
+      <c r="B2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="B3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="9"/>
+      <c r="B4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="223" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACDF4AC-1C72-A248-B64B-41D864E31943}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="3" width="50.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="9"/>
+      <c r="B8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="272" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="9"/>
+      <c r="B13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A382116-CB63-F94B-BC70-99DCE0B95552}">
-  <dimension ref="A1:H12"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE82061-044D-D24A-A922-8AEC17267757}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="3" width="50.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B91EB32-F878-A34E-A921-D76565EE5354}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1592,11 +1483,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1607,127 +1498,134 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="9"/>
+      <c r="B2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="B3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="9"/>
+      <c r="B4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="255" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="9"/>
+      <c r="B13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BC4B67-5220-B043-AF3A-89DE270328CF}">
-  <dimension ref="A1:H12"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A382116-CB63-F94B-BC70-99DCE0B95552}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1738,11 +1636,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1753,116 +1651,276 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="9"/>
+      <c r="B2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="B3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="9"/>
+      <c r="B4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="9"/>
+      <c r="B8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="306" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8" ht="255" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="9"/>
+      <c r="B13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BC4B67-5220-B043-AF3A-89DE270328CF}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="50.83203125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="306" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TPA_UseCaseDescription.xlsx
+++ b/TPA_UseCaseDescription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopheralden/Documents/AL23-2/TPA/DESKTOP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921A24BA-26E1-E846-BE11-870C428F981B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D285F-2085-E640-847E-4768C7614410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="18000" windowHeight="21040" firstSheet="4" activeTab="4" xr2:uid="{3E29D978-E589-CF40-BCCD-365928EA242B}"/>
+    <workbookView xWindow="-8160" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="6" xr2:uid="{3E29D978-E589-CF40-BCCD-365928EA242B}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Assign Flight Crews" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="96">
   <si>
     <t>USE CASE DESCRIPTION</t>
   </si>
@@ -119,11 +119,6 @@
   </si>
   <si>
     <t>Customs and Border Control Officer</t>
-  </si>
-  <si>
-    <t>2. If there are no available furure flights, then display no data message
-4. If there are no crew available, then prompt to update schedule to free crews or make a request ticket
-6. If theres a data mismatch, then display error message</t>
   </si>
   <si>
     <t>The officer views all inspection record when faced with irregularity in goods, then system generates a comprehensive detailed report based on the report.</t>
@@ -150,10 +145,6 @@
 7.1 System prompts a choice to edit or fully discard the report</t>
   </si>
   <si>
-    <t>1. If there are no inspection record, then display no data message
-3. If inspection record data is incomplete, then display prompt to fill in the missing data</t>
-  </si>
-  <si>
     <t>Baggage Security Supervisor</t>
   </si>
   <si>
@@ -185,11 +176,6 @@
 6. Contributor uploads the data into the system</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Data related to the lost item does not meet the requirement
-3. There are no related data to the found unidentified item
-</t>
-  </si>
-  <si>
     <t>Update Cargo Handling Tasks</t>
   </si>
   <si>
@@ -215,38 +201,6 @@
     <t>Cargo schedule successfully updated
 Data is synchronized across the platform
 A change in the cargo schedule has been notified</t>
-  </si>
-  <si>
-    <t>1. Contributor view the cargo monitoring dashboard
-2. Contributor chooses an existing cargo to update
-3. Contributor views all available transportation to assign the cargo
-4. Contributor chooses a transportation
-5. Contributor views all available future flight schedule to assign the cargo
-6. If flight schedule is available, then contributor assigns a new flight schedule for the cargo
-7. If flight schedule is not available, then contributor temporarily moves the cargo into the airport storage and queues for an upcoming flight
-8. Contributor confirms the changes made</t>
-  </si>
-  <si>
-    <t>1.1 System displays a dashboard curated for monitoring cargo
-2.1 System fetches and displays all existing cargo data
-2.2 System fetches and displays the detail of the chosen cargo data
-3.1 System fetches and displays all currently available transporation data
-4.1 System fetches and displays the detail of the chosen transportation
-4.2 System temporarily sets the status of the transportation to "pending"
-5.1 System fetches and displays all available future flight schedules
-6.1 System displays the detail of flight schedule
-6.2 System validates the compability of current cargo with the flight
-7.1 System prompts a storage location
-7.2 System sets a queue for an upcoming available flight to take the cargo
-8.1 System validates the data, if no mismatch has occured, then system updates all changes made to the data
-8.2 System updates the status of transportation to "Assigned"
-8.3 System notifies all stakeholders regarding the changes made to the cargo schedule</t>
-  </si>
-  <si>
-    <t>2. If no cargo is available, then display no cargo message
-3. If no transportation is available, then display no transportation
-5. If no future flights is available, then display no flights available
-7. If no storage space is available, then display no transporation message, and report incident.</t>
   </si>
   <si>
     <t>Review Financial Budget Requests</t>
@@ -287,11 +241,6 @@
 6.2 System notifies all stakeholders regarding the budget request</t>
   </si>
   <si>
-    <t xml:space="preserve">1. If no financial budget requests, then show no data message
-2. If budget exceeds the threshold, then display a warning message
-</t>
-  </si>
-  <si>
     <t>Financial budget request has been evaluated
 Evaluated result has been notified to the department
 Financial budgets has been updated upon changes</t>
@@ -326,16 +275,7 @@
 8. If not valid, then Contributor edits the generated report then uploads the report into the system</t>
   </si>
   <si>
-    <t>1. If there are no current financial operations, then show no data message
-3. If there was an error in generating an analysis, then prompt the user to restart or use manual input
-6. If there was an error in generating the report, then prompt the user to restart or use manual input</t>
-  </si>
-  <si>
     <t>Delegate Security to Handle Incident</t>
-  </si>
-  <si>
-    <t>1. If no financial budget requests, then show no data message
-2. If budget exceeds the threshold, then display a warning message</t>
   </si>
   <si>
     <t>Deploying security personel based on incident report</t>
@@ -378,27 +318,6 @@
 4.2 The communication line between user and security will be closed</t>
   </si>
   <si>
-    <t>1. Contributor views the flight monitoring dashboard
-2. Contributor views the unassigned flights
-3. Contributor chooses an unassinged flights
-4. Contributor views crew data
-5. Contributor selects the crews needed for a flight crew
-6. Contributor confirms the newly assinged flight crew to the corresponding flight
-7. Contributor saves the flight crew data</t>
-  </si>
-  <si>
-    <t>1.1 System displays a dashboard curated for monitoring flights
-2.1 System fetches flight schedule data and displays a list of unassinged flights schedules
-3.1 System accesses and validates flight schedule details
-3.2 System prompts a form needed to assemble a flight crew
-4.1 System fetches data and displays available crew members for each category
-5.1 System validates the compability of the flight crew, checking for any mis-input or clashes with other flight schedules
-6.1 System prompts a confirmation pop-up
-6.2 System confirms the assignment of the flight crew
-7.1 System uploads data and synchronizes across the platform
-7.2 System notifies all stakeholders of the updated schedule</t>
-  </si>
-  <si>
     <t>1. Contributor views all the inspection record
 2. Contributor chooses an inspection record
 3. Contributor validates the integrity of the inspection record
@@ -449,6 +368,105 @@
   </si>
   <si>
     <t>Related use cases</t>
+  </si>
+  <si>
+    <t>View Flight Information, View Passenger Information</t>
+  </si>
+  <si>
+    <t>1. Contributor views the unassigned flights
+2. Contributor chooses an unassinged flights
+3. Contributor views crew data
+4. Contributor selects the crews needed for a flight crew
+5. Contributor confirms the newly assinged flight crew to the corresponding flight
+6. Contributor saves the flight crew data</t>
+  </si>
+  <si>
+    <t>1.1 System fetches flight schedule data and displays a list of unassinged flights schedules
+2.1 System accesses and validates flight schedule details
+2.2 System prompts a form needed to assemble a flight crew
+3.1 System fetches data and displays available crew members for each category
+4.1 System validates the compability of the flight crew, checking for any mis-input or clashes with other flight schedules
+5.1 System prompts a confirmation pop-up
+5.2 System confirms the assignment of the flight crew
+6.1 System uploads data and synchronizes across the platform
+6.2 System notifies all stakeholders of the updated schedule</t>
+  </si>
+  <si>
+    <t>2.1. If there are no available furure flights, then display no data message
+3.1. If there are no crew available, then prompt to update schedule to free crews or make a request ticket
+6.1. If theres a data mismatch, then display error message</t>
+  </si>
+  <si>
+    <t>View Inspection Records</t>
+  </si>
+  <si>
+    <t>1.1. If there are no inspection record, then display no data message
+3.1. If inspection record data is incomplete, then display prompt to fill in the missing data</t>
+  </si>
+  <si>
+    <t>View Detailed Logs, View Baggage Data, View Passenger Information, View Flight Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2. Data related to the lost item does not meet the requirement
+3.1. There are no related data to the found unidentified item
+</t>
+  </si>
+  <si>
+    <t>1. Contributor chooses an existing cargo to update
+2. Contributor views all available transportation to assign the cargo
+3. Contributor chooses a transportation
+4. Contributor views all available future flight schedule to assign the cargo
+5. If flight schedule is available, then contributor assigns a new flight schedule for the cargo
+6. If flight schedule is not available, then contributor temporarily moves the cargo into the airport storage and queues for an upcoming flight
+7. Contributor confirms the changes made</t>
+  </si>
+  <si>
+    <t>1.1 System fetches and displays all existing cargo data
+1.2 System fetches and displays the detail of the chosen cargo data
+2.1 System fetches and displays all currently available transporation data
+3.1 System fetches and displays the detail of the chosen transportation
+3.2 System temporarily sets the status of the transportation to "pending"
+4.1 System fetches and displays all available future flight schedules
+5.1 System displays the detail of flight schedule
+5.2 System validates the compability of current cargo with the flight
+6.1 System prompts a storage location
+6.2 System sets a queue for an upcoming available flight to take the cargo
+7.1 System validates the data, if no mismatch has occured, then system updates all changes made to the data
+7.2 System updates the status of transportation to "Assigned"
+7.3 System notifies all stakeholders regarding the changes made to the cargo schedule</t>
+  </si>
+  <si>
+    <t>View Cargo Handling Task, View Transportation Data, View Cargo Data, View Flight Information</t>
+  </si>
+  <si>
+    <t>1.1. If no cargo is available, then display no cargo message
+2.1. If no transportation is available, then display no transportation
+4.1. If no future flights is available, then display no flights available
+6.1. If no storage space is available, then display no transporation message, and report incident.</t>
+  </si>
+  <si>
+    <t>View Budget Requests</t>
+  </si>
+  <si>
+    <t>1.1. If no financial budget requests, then show no data message
+2.2. If budget exceeds the threshold, then display a warning message</t>
+  </si>
+  <si>
+    <t>View Financial Operations</t>
+  </si>
+  <si>
+    <t>1.1. If there are no current financial operations, then show no data message
+3.1. If there was an error in generating an analysis, then prompt the user to restart or use manual input
+6.1. If there was an error in generating the report, then prompt the user to restart or use manual input</t>
+  </si>
+  <si>
+    <t>View Incident Logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1. If no incident reports then display no data message
+2.1. If there are no available security, then create and urgent dispatch request
+3.2 If unable to form communication line, then system will display a standard operation procedure to follow
+</t>
   </si>
 </sst>
 </file>
@@ -478,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -501,11 +519,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,17 +578,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,7 +913,318 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="3" width="50.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A700A7B0-2D3E-4449-A8AD-527C3BD1CB21}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="50.83203125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="223" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACDF4AC-1C72-A248-B64B-41D864E31943}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,134 +1249,292 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="10"/>
+      <c r="B2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10"/>
+      <c r="B8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12"/>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="306" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="10"/>
+      <c r="B13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="12">
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A700A7B0-2D3E-4449-A8AD-527C3BD1CB21}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE82061-044D-D24A-A922-8AEC17267757}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="3" width="50.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B91EB32-F878-A34E-A921-D76565EE5354}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,11 +1545,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1041,83 +1560,85 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="12"/>
+      <c r="B3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="12"/>
+      <c r="B5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="12"/>
+      <c r="B8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="12"/>
+      <c r="B9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="B10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1127,352 +1648,49 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="223" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
+    <row r="12" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="12"/>
+      <c r="B13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B8:C8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACDF4AC-1C72-A248-B64B-41D864E31943}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="3" width="50.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="221" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="12">
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE82061-044D-D24A-A922-8AEC17267757}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A382116-CB63-F94B-BC70-99DCE0B95552}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="3" width="50.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B91EB32-F878-A34E-A921-D76565EE5354}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1483,11 +1701,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1498,83 +1716,85 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="12"/>
+      <c r="B3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="12"/>
+      <c r="B5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="12"/>
+      <c r="B8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="12"/>
+      <c r="B9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="B10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1584,48 +1804,49 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="272" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:8" ht="255" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="12"/>
+      <c r="B13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="12">
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A382116-CB63-F94B-BC70-99DCE0B95552}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BC4B67-5220-B043-AF3A-89DE270328CF}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1636,11 +1857,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1651,83 +1872,85 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="12"/>
+      <c r="B5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="12"/>
+      <c r="B8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="12"/>
+      <c r="B9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="B10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1737,190 +1960,38 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="255" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:8" ht="306" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="12"/>
+      <c r="B13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="12">
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BC4B67-5220-B043-AF3A-89DE270328CF}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" style="7" customWidth="1"/>
-    <col min="2" max="3" width="50.83203125" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="306" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
